--- a/data_year/zb/卫生/农村居民主要疾病死亡率及死因构成/农村居民主要疾病粗死亡率.xlsx
+++ b/data_year/zb/卫生/农村居民主要疾病死亡率及死因构成/农村居民主要疾病粗死亡率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -733,2141 +733,2137 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.98459900515334</v>
+        <v>4.13318537028684</v>
       </c>
       <c r="C2" t="n">
-        <v>2.20058717443417</v>
+        <v>2.14143910029952</v>
       </c>
       <c r="D2" t="n">
-        <v>7.66665312894891</v>
+        <v>12.6448860272055</v>
       </c>
       <c r="E2" t="n">
-        <v>11.2549979809542</v>
+        <v>10.3329634257171</v>
       </c>
       <c r="F2" t="n">
-        <v>98.16261449921291</v>
+        <v>88.2522397373922</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2685589790499</v>
+        <v>2.12064842942282</v>
       </c>
       <c r="H2" t="n">
-        <v>2.47530655142274</v>
+        <v>2.51151304190468</v>
       </c>
       <c r="I2" t="n">
-        <v>3.17486336440616</v>
+        <v>2.91735135116745</v>
       </c>
       <c r="J2" t="n">
-        <v>1.96128334649004</v>
+        <v>1.7861334803066</v>
       </c>
       <c r="K2" t="n">
-        <v>9.29452753058035</v>
+        <v>14.8334132840701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.7569690982842</v>
+        <v>11.737448584872</v>
       </c>
       <c r="M2" t="n">
-        <v>90.6906621919498</v>
+        <v>80.8182872851111</v>
       </c>
       <c r="N2" t="n">
-        <v>1.05253622406943</v>
+        <v>1.21627184611354</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93827709022622</v>
+        <v>2.00727381596361</v>
       </c>
       <c r="P2" t="n">
-        <v>0.385354792418863</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>0.272172720808625</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.034021590101078</v>
+      </c>
       <c r="R2" t="n">
-        <v>107.34719172695</v>
+        <v>106.946868482739</v>
       </c>
       <c r="S2" t="n">
-        <v>109.210698484319</v>
+        <v>99.0028271941374</v>
       </c>
       <c r="T2" t="n">
-        <v>35.504404979129</v>
+        <v>33.2475989262786</v>
       </c>
       <c r="U2" t="n">
-        <v>5.99312975672322</v>
+        <v>5.27334646566711</v>
       </c>
       <c r="V2" t="n">
-        <v>10.4678466000348</v>
+        <v>10.0533798748686</v>
       </c>
       <c r="W2" t="n">
-        <v>4.68177314968589</v>
+        <v>3.69134252596698</v>
       </c>
       <c r="X2" t="n">
-        <v>3.45669000363786</v>
+        <v>3.18952407197608</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.47815196494997</v>
+        <v>1.04616389560815</v>
       </c>
       <c r="Z2" t="n">
-        <v>139.400658266507</v>
+        <v>131.535972728293</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.92025025055251</v>
+        <v>0.808012764900606</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.57094913748107</v>
+        <v>4.01454763192722</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.189754621218906</v>
+        <v>0.133060293610844</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.110454182500557</v>
+        <v>0.020790670876694</v>
       </c>
       <c r="AE2" t="n">
-        <v>112.892670991146</v>
+        <v>111.338200678874</v>
       </c>
       <c r="AF2" t="n">
-        <v>159.147484032149</v>
+        <v>144.108456114719</v>
       </c>
       <c r="AG2" t="n">
-        <v>54.1112207911703</v>
+        <v>52.9288899178885</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.21633992336972</v>
+        <v>6.31204767816441</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.5544626633426</v>
+        <v>14.761376322453</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.74025033669169</v>
+        <v>5.29612411576693</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.43273935993177</v>
+        <v>2.48128702812429</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.08742807726045</v>
+        <v>10.5515713950072</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.797913568899499</v>
+        <v>8.989580872384719</v>
       </c>
       <c r="AN2" t="n">
-        <v>105.411266027135</v>
+        <v>95.362775553026</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.44824065238035</v>
+        <v>2.98567980105447</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.99628678046642</v>
+        <v>2.9938151683598</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.161810645500049</v>
+        <v>0.008135367305326</v>
       </c>
       <c r="AR2" t="n">
-        <v>118.272422505674</v>
+        <v>115.538486470233</v>
       </c>
       <c r="AS2" t="n">
-        <v>207.5918988217</v>
+        <v>187.251749266678</v>
       </c>
       <c r="AT2" t="n">
-        <v>72.1619682155907</v>
+        <v>71.7539396329713</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.402994211140459</v>
+        <v>7.30555984018234</v>
       </c>
       <c r="AV2" t="n">
-        <v>18.518949393609</v>
+        <v>19.2645497790109</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.46808388241544</v>
+        <v>3.97819461230419</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.70614355405254</v>
+        <v>2.79043098572666</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.12151516363827</v>
+        <v>0.715912322868648</v>
       </c>
       <c r="AZ2" t="n">
-        <v>164.405195505481</v>
+        <v>159.266085736358</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.11593548620723</v>
+        <v>0.984379443944391</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.01860549019056</v>
+        <v>5.10087530043911</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.08089239502562</v>
+        <v>3.83795784383778</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.07572415886166</v>
+        <v>2.98554033789331</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.29712860475013</v>
+        <v>0.877366310996502</v>
       </c>
       <c r="BF2" t="n">
-        <v>152.092577144741</v>
+        <v>145.709337772225</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01957706923591</v>
+        <v>0.898156981873196</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.79817262334744</v>
+        <v>4.56978945869742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.13318537028684</v>
+        <v>4.52888148994045</v>
       </c>
       <c r="C3" t="n">
-        <v>2.14143910029952</v>
+        <v>1.89356082641457</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6448860272055</v>
+        <v>8.825099180041651</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3329634257171</v>
+        <v>10.5574078679538</v>
       </c>
       <c r="F3" t="n">
-        <v>88.2522397373922</v>
+        <v>84.9729661848594</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12064842942282</v>
+        <v>2.09167059657474</v>
       </c>
       <c r="H3" t="n">
-        <v>2.51151304190468</v>
+        <v>2.27135155090605</v>
       </c>
       <c r="I3" t="n">
-        <v>2.91735135116745</v>
+        <v>3.036527576813</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7861334803066</v>
+        <v>1.62199609693117</v>
       </c>
       <c r="K3" t="n">
-        <v>14.8334132840701</v>
+        <v>10.6938579879067</v>
       </c>
       <c r="L3" t="n">
-        <v>11.737448584872</v>
+        <v>11.8820644310074</v>
       </c>
       <c r="M3" t="n">
-        <v>80.8182872851111</v>
+        <v>77.4267381037986</v>
       </c>
       <c r="N3" t="n">
-        <v>1.21627184611354</v>
+        <v>1.13162518390547</v>
       </c>
       <c r="O3" t="n">
-        <v>2.00727381596361</v>
+        <v>1.73044351038878</v>
       </c>
       <c r="P3" t="n">
-        <v>0.272172720808625</v>
+        <v>0.363063079836337</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.034021590101078</v>
+        <v>0.08015678385997101</v>
       </c>
       <c r="R3" t="n">
-        <v>106.946868482739</v>
+        <v>119.042254241922</v>
       </c>
       <c r="S3" t="n">
-        <v>99.0028271941374</v>
+        <v>103.124059988319</v>
       </c>
       <c r="T3" t="n">
-        <v>33.2475989262786</v>
+        <v>36.7259523226653</v>
       </c>
       <c r="U3" t="n">
-        <v>5.27334646566711</v>
+        <v>5.25734200022748</v>
       </c>
       <c r="V3" t="n">
-        <v>10.0533798748686</v>
+        <v>9.62824427306235</v>
       </c>
       <c r="W3" t="n">
-        <v>3.69134252596698</v>
+        <v>4.76225598226884</v>
       </c>
       <c r="X3" t="n">
-        <v>3.18952407197608</v>
+        <v>3.40902086651522</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.04616389560815</v>
+        <v>1.58427525746765</v>
       </c>
       <c r="Z3" t="n">
-        <v>131.535972728293</v>
+        <v>126.105481431465</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.808012764900606</v>
+        <v>0.8487188879291</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.01454763192722</v>
+        <v>1.83889092384638</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.133060293610844</v>
+        <v>0.177377352352703</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.020790670876694</v>
+        <v>0.131305312780573</v>
       </c>
       <c r="AE3" t="n">
-        <v>111.338200678874</v>
+        <v>123.689604639299</v>
       </c>
       <c r="AF3" t="n">
-        <v>144.108456114719</v>
+        <v>150.826035947284</v>
       </c>
       <c r="AG3" t="n">
-        <v>52.9288899178885</v>
+        <v>56.5004457292826</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.31204767816441</v>
+        <v>6.50306838560626</v>
       </c>
       <c r="AI3" t="n">
-        <v>14.761376322453</v>
+        <v>13.8400406874681</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.29612411576693</v>
+        <v>5.95446109409756</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.48128702812429</v>
+        <v>2.15297458621682</v>
       </c>
       <c r="AL3" t="n">
-        <v>10.5515713950072</v>
+        <v>7.03995664907299</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.989580872384719</v>
+        <v>9.292022115826979</v>
       </c>
       <c r="AN3" t="n">
-        <v>95.362775553026</v>
+        <v>92.1815436851745</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.98567980105447</v>
+        <v>3.00875946358334</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.9938151683598</v>
+        <v>2.78805704784145</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.008135367305326</v>
+        <v>0.18016523734032</v>
       </c>
       <c r="AR3" t="n">
-        <v>115.538486470233</v>
+        <v>128.129012665502</v>
       </c>
       <c r="AS3" t="n">
-        <v>187.251749266678</v>
+        <v>196.393621093749</v>
       </c>
       <c r="AT3" t="n">
-        <v>71.7539396329713</v>
+        <v>75.3901435650567</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.30555984018234</v>
+        <v>7.69305563443165</v>
       </c>
       <c r="AV3" t="n">
-        <v>19.2645497790109</v>
+        <v>17.8633832822927</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.97819461230419</v>
+        <v>4.92751924125774</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.79043098572666</v>
+        <v>2.90966858304616</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.715912322868648</v>
+        <v>1.07648729310841</v>
       </c>
       <c r="AZ3" t="n">
-        <v>159.266085736358</v>
+        <v>150.694708642377</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.984379443944391</v>
+        <v>0.909834448568614</v>
       </c>
       <c r="BB3" t="n">
-        <v>5.10087530043911</v>
+        <v>2.47727201342939</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.83795784383778</v>
+        <v>4.84677856298816</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.98554033789331</v>
+        <v>3.15363110871235</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.877366310996502</v>
+        <v>1.32457113769876</v>
       </c>
       <c r="BF3" t="n">
-        <v>145.709337772225</v>
+        <v>138.681446316071</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.898156981873196</v>
+        <v>0.8799759558276981</v>
       </c>
       <c r="BH3" t="n">
-        <v>4.56978945869742</v>
+        <v>2.16538585989015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.52888148994045</v>
+        <v>5.68875543230759</v>
       </c>
       <c r="C4" t="n">
-        <v>1.89356082641457</v>
+        <v>2.11104463601651</v>
       </c>
       <c r="D4" t="n">
-        <v>8.825099180041651</v>
+        <v>29.3398320789838</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5574078679538</v>
+        <v>10.6615347804575</v>
       </c>
       <c r="F4" t="n">
-        <v>84.9729661848594</v>
+        <v>103.89897793377</v>
       </c>
       <c r="G4" t="n">
-        <v>2.09167059657474</v>
+        <v>2.08283951754969</v>
       </c>
       <c r="H4" t="n">
-        <v>2.27135155090605</v>
+        <v>2.72070911979928</v>
       </c>
       <c r="I4" t="n">
-        <v>3.036527576813</v>
+        <v>3.53135919843828</v>
       </c>
       <c r="J4" t="n">
-        <v>1.62199609693117</v>
+        <v>1.86046639418346</v>
       </c>
       <c r="K4" t="n">
-        <v>10.6938579879067</v>
+        <v>28.7490553470862</v>
       </c>
       <c r="L4" t="n">
-        <v>11.8820644310074</v>
+        <v>11.4229109652354</v>
       </c>
       <c r="M4" t="n">
-        <v>77.4267381037986</v>
+        <v>92.9307372582778</v>
       </c>
       <c r="N4" t="n">
-        <v>1.13162518390547</v>
+        <v>1.01399827171137</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73044351038878</v>
+        <v>2.13821374686962</v>
       </c>
       <c r="P4" t="n">
-        <v>0.363063079836337</v>
+        <v>0.30419948151341</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08015678385997101</v>
+        <v>0.052904257654506</v>
       </c>
       <c r="R4" t="n">
-        <v>119.042254241922</v>
+        <v>115.362142503788</v>
       </c>
       <c r="S4" t="n">
-        <v>103.124059988319</v>
+        <v>102.779746558292</v>
       </c>
       <c r="T4" t="n">
-        <v>36.7259523226653</v>
+        <v>38.1660132095883</v>
       </c>
       <c r="U4" t="n">
-        <v>5.25734200022748</v>
+        <v>5.47999935537926</v>
       </c>
       <c r="V4" t="n">
-        <v>9.62824427306235</v>
+        <v>11.4581804703384</v>
       </c>
       <c r="W4" t="n">
-        <v>4.76225598226884</v>
+        <v>5.9032334166153</v>
       </c>
       <c r="X4" t="n">
-        <v>3.40902086651522</v>
+        <v>3.04640350327198</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.58427525746765</v>
+        <v>1.60917117032456</v>
       </c>
       <c r="Z4" t="n">
-        <v>126.105481431465</v>
+        <v>120.802463665927</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8487188879291</v>
+        <v>0.956685325918985</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.83889092384638</v>
+        <v>1.83401426535621</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.177377352352703</v>
+        <v>0.151873714821332</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.131305312780573</v>
+        <v>0.049901363441295</v>
       </c>
       <c r="AE4" t="n">
-        <v>123.689604639299</v>
+        <v>119.498578070419</v>
       </c>
       <c r="AF4" t="n">
-        <v>150.826035947284</v>
+        <v>151.467995040309</v>
       </c>
       <c r="AG4" t="n">
-        <v>56.5004457292826</v>
+        <v>58.8619126157532</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.50306838560626</v>
+        <v>6.61518509271771</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.8400406874681</v>
+        <v>16.786384736752</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.95446109409756</v>
+        <v>7.77924524027459</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.15297458621682</v>
+        <v>2.35385179977556</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.03995664907299</v>
+        <v>29.9122872995072</v>
       </c>
       <c r="AM4" t="n">
-        <v>9.292022115826979</v>
+        <v>9.92377083644034</v>
       </c>
       <c r="AN4" t="n">
-        <v>92.1815436851745</v>
+        <v>114.527065154597</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.00875946358334</v>
+        <v>3.1185332374522</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.78805704784145</v>
+        <v>3.28513980767224</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.18016523734032</v>
+        <v>0.046991596728732</v>
       </c>
       <c r="AR4" t="n">
-        <v>128.129012665502</v>
+        <v>123.506732093124</v>
       </c>
       <c r="AS4" t="n">
-        <v>196.393621093749</v>
+        <v>198.646295262366</v>
       </c>
       <c r="AT4" t="n">
-        <v>75.3901435650567</v>
+        <v>78.91597876089639</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.69305563443165</v>
+        <v>7.71516579018995</v>
       </c>
       <c r="AV4" t="n">
-        <v>17.8633832822927</v>
+        <v>21.9493476356567</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.92751924125774</v>
+        <v>6.60445532205629</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.90966858304616</v>
+        <v>3.14416501748605</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.07648729310841</v>
+        <v>1.1918777715742</v>
       </c>
       <c r="AZ4" t="n">
-        <v>150.694708642377</v>
+        <v>150.620883405602</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.909834448568614</v>
+        <v>1.02954316469312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.47727201342939</v>
+        <v>2.33249198308068</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.84677856298816</v>
+        <v>6.25936667513631</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.15363110871235</v>
+        <v>3.09605415785772</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.32457113769876</v>
+        <v>1.39723817635625</v>
       </c>
       <c r="BF4" t="n">
-        <v>138.681446316071</v>
+        <v>135.946501385569</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.8799759558276981</v>
+        <v>0.993688019830998</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.16538585989015</v>
+        <v>2.08717876654458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.68875543230759</v>
+        <v>7.9395308</v>
       </c>
       <c r="C5" t="n">
-        <v>2.11104463601651</v>
+        <v>2.126341435</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3398320789838</v>
+        <v>7.662348144</v>
       </c>
       <c r="E5" t="n">
-        <v>10.6615347804575</v>
+        <v>11.76082825</v>
       </c>
       <c r="F5" t="n">
-        <v>103.89897793377</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.08283951754969</v>
-      </c>
+        <v>75.32040435</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>2.72070911979928</v>
+        <v>2.497192713</v>
       </c>
       <c r="I5" t="n">
-        <v>3.53135919843828</v>
+        <v>4.970918887</v>
       </c>
       <c r="J5" t="n">
-        <v>1.86046639418346</v>
+        <v>1.8771211</v>
       </c>
       <c r="K5" t="n">
-        <v>28.7490553470862</v>
+        <v>8.791596323</v>
       </c>
       <c r="L5" t="n">
-        <v>11.4229109652354</v>
+        <v>13.07210981</v>
       </c>
       <c r="M5" t="n">
-        <v>92.9307372582778</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.01399827171137</v>
-      </c>
+        <v>67.97627366</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>2.13821374686962</v>
+        <v>2.069913551</v>
       </c>
       <c r="P5" t="n">
-        <v>0.30419948151341</v>
+        <v>0.311333756</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.052904257654506</v>
+        <v>0.052106068</v>
       </c>
       <c r="R5" t="n">
-        <v>115.362142503788</v>
+        <v>137.4154252</v>
       </c>
       <c r="S5" t="n">
-        <v>102.779746558292</v>
+        <v>102.2594611</v>
       </c>
       <c r="T5" t="n">
-        <v>38.1660132095883</v>
+        <v>35.13772695</v>
       </c>
       <c r="U5" t="n">
-        <v>5.47999935537926</v>
+        <v>5.680864063</v>
       </c>
       <c r="V5" t="n">
-        <v>11.4581804703384</v>
+        <v>10.50718861</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9032334166153</v>
+        <v>6.618773287</v>
       </c>
       <c r="X5" t="n">
-        <v>3.04640350327198</v>
+        <v>2.756410997</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.60917117032456</v>
+        <v>1.875818448</v>
       </c>
       <c r="Z5" t="n">
-        <v>120.802463665927</v>
+        <v>132.6555359</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.956685325918985</v>
+        <v>1.129399024</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.83401426535621</v>
+        <v>1.758579795</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.151873714821332</v>
+        <v>0.152291161</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.049901363441295</v>
+        <v>0.057348136</v>
       </c>
       <c r="AE5" t="n">
-        <v>119.498578070419</v>
+        <v>143.5226307</v>
       </c>
       <c r="AF5" t="n">
-        <v>151.467995040309</v>
+        <v>146.6525645</v>
       </c>
       <c r="AG5" t="n">
-        <v>58.8619126157532</v>
+        <v>57.13531049</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.61518509271771</v>
+        <v>6.955054469</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.786384736752</v>
+        <v>15.18833516</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.77924524027459</v>
+        <v>10.7821237</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.35385179977556</v>
+        <v>2.364982247</v>
       </c>
       <c r="AL5" t="n">
-        <v>29.9122872995072</v>
+        <v>6.581037096</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.92377083644034</v>
+        <v>10.50521122</v>
       </c>
       <c r="AN5" t="n">
-        <v>114.527065154597</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3.1185332374522</v>
-      </c>
+        <v>82.35277315</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>3.28513980767224</v>
+        <v>2.906333668</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.046991596728732</v>
+        <v>0.062367675</v>
       </c>
       <c r="AR5" t="n">
-        <v>123.506732093124</v>
+        <v>149.3705823</v>
       </c>
       <c r="AS5" t="n">
-        <v>198.646295262366</v>
+        <v>189.1611591</v>
       </c>
       <c r="AT5" t="n">
-        <v>78.91597876089639</v>
+        <v>78.19908598000001</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.71516579018995</v>
+        <v>8.175154876000001</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.9493476356567</v>
+        <v>19.67076478</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.60445532205629</v>
+        <v>6.983932278</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.14416501748605</v>
+        <v>2.680562684</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.1918777715742</v>
+        <v>1.32718413</v>
       </c>
       <c r="AZ5" t="n">
-        <v>150.620883405602</v>
+        <v>166.9370617</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.02954316469312</v>
+        <v>1.196212012</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.33249198308068</v>
+        <v>2.29513045</v>
       </c>
       <c r="BC5" t="n">
-        <v>6.25936667513631</v>
+        <v>6.805312114</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.09605415785772</v>
+        <v>2.717664435</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.39723817635625</v>
+        <v>1.595552578</v>
       </c>
       <c r="BF5" t="n">
-        <v>135.946501385569</v>
+        <v>150.1680052</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.993688019830998</v>
+        <v>1.163529955</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.08717876654458</v>
+        <v>2.032672813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.9395308</v>
+        <v>7.8964388046</v>
       </c>
       <c r="C6" t="n">
-        <v>2.126341435</v>
+        <v>2.1013922088</v>
       </c>
       <c r="D6" t="n">
-        <v>7.662348144</v>
+        <v>6.4368168734</v>
       </c>
       <c r="E6" t="n">
-        <v>11.76082825</v>
+        <v>13.1284883697</v>
       </c>
       <c r="F6" t="n">
-        <v>75.32040435</v>
+        <v>80.01740101030001</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>2.497192713</v>
+        <v>2.4355992939</v>
       </c>
       <c r="I6" t="n">
-        <v>4.970918887</v>
+        <v>4.8112423795</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8771211</v>
+        <v>1.8375367965</v>
       </c>
       <c r="K6" t="n">
-        <v>8.791596323</v>
+        <v>7.5562925133</v>
       </c>
       <c r="L6" t="n">
-        <v>13.07210981</v>
+        <v>14.5474624914</v>
       </c>
       <c r="M6" t="n">
-        <v>67.97627366</v>
+        <v>71.1059209878</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>2.069913551</v>
+        <v>1.9192840814</v>
       </c>
       <c r="P6" t="n">
-        <v>0.311333756</v>
+        <v>0.2843383824</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.052106068</v>
+        <v>0.0462049871</v>
       </c>
       <c r="R6" t="n">
-        <v>137.4154252</v>
+        <v>138.5047803147</v>
       </c>
       <c r="S6" t="n">
-        <v>102.2594611</v>
+        <v>106.8673962955</v>
       </c>
       <c r="T6" t="n">
-        <v>35.13772695</v>
+        <v>34.3468918551</v>
       </c>
       <c r="U6" t="n">
-        <v>5.680864063</v>
+        <v>5.9639975716</v>
       </c>
       <c r="V6" t="n">
-        <v>10.50718861</v>
+        <v>9.966060304399999</v>
       </c>
       <c r="W6" t="n">
-        <v>6.618773287</v>
+        <v>6.4912083224</v>
       </c>
       <c r="X6" t="n">
-        <v>2.756410997</v>
+        <v>2.6952909168</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.875818448</v>
+        <v>1.8884807567</v>
       </c>
       <c r="Z6" t="n">
-        <v>132.6555359</v>
+        <v>134.0430371969</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.129399024</v>
+        <v>0.9857063924</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.758579795</v>
+        <v>2.2924782084</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.152291161</v>
+        <v>0.1390116125</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.057348136</v>
+        <v>0.0509709246</v>
       </c>
       <c r="AE6" t="n">
-        <v>143.5226307</v>
+        <v>143.7154179291</v>
       </c>
       <c r="AF6" t="n">
-        <v>146.6525645</v>
+        <v>152.5878340964</v>
       </c>
       <c r="AG6" t="n">
-        <v>57.13531049</v>
+        <v>55.2895520083</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.955054469</v>
+        <v>7.0930675274</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.18833516</v>
+        <v>14.5133915592</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.7821237</v>
+        <v>10.847568387</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.364982247</v>
+        <v>2.3537818157</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.581037096</v>
+        <v>5.365987914</v>
       </c>
       <c r="AM6" t="n">
-        <v>10.50521122</v>
+        <v>11.7711755992</v>
       </c>
       <c r="AN6" t="n">
-        <v>82.35277315</v>
+        <v>88.5416337313</v>
       </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>2.906333668</v>
+        <v>2.9294780903</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.062367675</v>
+        <v>0.0555297588</v>
       </c>
       <c r="AR6" t="n">
-        <v>149.3705823</v>
+        <v>148.6996279076</v>
       </c>
       <c r="AS6" t="n">
-        <v>189.1611591</v>
+        <v>196.321495726</v>
       </c>
       <c r="AT6" t="n">
-        <v>78.19908598000001</v>
+        <v>75.32215136249999</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.175154876000001</v>
+        <v>8.173073882900001</v>
       </c>
       <c r="AV6" t="n">
-        <v>19.67076478</v>
+        <v>18.8631190766</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.983932278</v>
+        <v>6.8120281628</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.680562684</v>
+        <v>2.6994262325</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.32718413</v>
+        <v>1.3735115843</v>
       </c>
       <c r="AZ6" t="n">
-        <v>166.9370617</v>
+        <v>168.99972115</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.196212012</v>
+        <v>1.2137218703</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.29513045</v>
+        <v>2.8490166031</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.805312114</v>
+        <v>6.655180948</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.717664435</v>
+        <v>2.6974044974</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.595552578</v>
+        <v>1.625277436</v>
       </c>
       <c r="BF6" t="n">
-        <v>150.1680052</v>
+        <v>151.9095732704</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.163529955</v>
+        <v>1.102246244</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.032672813</v>
+        <v>2.5769277666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.8964388046</v>
+        <v>7.7187077076</v>
       </c>
       <c r="C7" t="n">
-        <v>2.1013922088</v>
+        <v>1.7796545664</v>
       </c>
       <c r="D7" t="n">
-        <v>6.4368168734</v>
+        <v>6.1658044952</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1284883697</v>
+        <v>14.2841900945</v>
       </c>
       <c r="F7" t="n">
-        <v>80.01740101030001</v>
+        <v>79.9602003275</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2.4355992939</v>
+        <v>2.1902119423</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8112423795</v>
+        <v>4.7835157668</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8375367965</v>
+        <v>1.525314145</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5562925133</v>
+        <v>7.223085485</v>
       </c>
       <c r="L7" t="n">
-        <v>14.5474624914</v>
+        <v>16.1090899079</v>
       </c>
       <c r="M7" t="n">
-        <v>71.1059209878</v>
+        <v>71.1346810759</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.9192840814</v>
+        <v>1.7503796114</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2843383824</v>
+        <v>0.208739474</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0462049871</v>
+        <v>0.0536425464</v>
       </c>
       <c r="R7" t="n">
-        <v>138.5047803147</v>
+        <v>141.2244986396</v>
       </c>
       <c r="S7" t="n">
-        <v>106.8673962955</v>
+        <v>108.2005144857</v>
       </c>
       <c r="T7" t="n">
-        <v>34.3468918551</v>
+        <v>34.1726343319</v>
       </c>
       <c r="U7" t="n">
-        <v>5.9639975716</v>
+        <v>5.9601533603</v>
       </c>
       <c r="V7" t="n">
-        <v>9.966060304399999</v>
+        <v>9.9775136276</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4912083224</v>
+        <v>6.3694693121</v>
       </c>
       <c r="X7" t="n">
-        <v>2.6952909168</v>
+        <v>3.0144778784</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8884807567</v>
+        <v>1.830843431</v>
       </c>
       <c r="Z7" t="n">
-        <v>134.0430371969</v>
+        <v>137.426373127</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9857063924</v>
+        <v>1.133490328</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.2924782084</v>
+        <v>2.0967238783</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1390116125</v>
+        <v>0.1024961929</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0509709246</v>
+        <v>0.0652769049</v>
       </c>
       <c r="AE7" t="n">
-        <v>143.7154179291</v>
+        <v>144.7858929829</v>
       </c>
       <c r="AF7" t="n">
-        <v>152.5878340964</v>
+        <v>153.9441282259</v>
       </c>
       <c r="AG7" t="n">
-        <v>55.2895520083</v>
+        <v>53.4875523499</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.0930675274</v>
+        <v>7.1982102813</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5133915592</v>
+        <v>14.1605075378</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.847568387</v>
+        <v>10.55037853</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.3537818157</v>
+        <v>2.0250246699</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.365987914</v>
+        <v>5.1458126889</v>
       </c>
       <c r="AM7" t="n">
-        <v>11.7711755992</v>
+        <v>12.5236525694</v>
       </c>
       <c r="AN7" t="n">
-        <v>88.5416337313</v>
+        <v>88.47445284</v>
       </c>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>2.9294780903</v>
+        <v>2.6145318515</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0555297588</v>
+        <v>0.07650093199999999</v>
       </c>
       <c r="AR7" t="n">
-        <v>148.6996279076</v>
+        <v>148.2216807106</v>
       </c>
       <c r="AS7" t="n">
-        <v>196.321495726</v>
+        <v>198.0744130415</v>
       </c>
       <c r="AT7" t="n">
-        <v>75.32215136249999</v>
+        <v>72.1212536172</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.173073882900001</v>
+        <v>8.392602242900001</v>
       </c>
       <c r="AV7" t="n">
-        <v>18.8631190766</v>
+        <v>18.1959716724</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.8120281628</v>
+        <v>6.6375808623</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.6994262325</v>
+        <v>2.6606574135</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.3735115843</v>
+        <v>1.2656404187</v>
       </c>
       <c r="AZ7" t="n">
-        <v>168.99972115</v>
+        <v>169.2718121539</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.2137218703</v>
+        <v>1.1902645004</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.8490166031</v>
+        <v>2.7202831398</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.655180948</v>
+        <v>6.5059315263</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.6974044974</v>
+        <v>2.8343919253</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.625277436</v>
+        <v>1.5431689371</v>
       </c>
       <c r="BF7" t="n">
-        <v>151.9095732704</v>
+        <v>153.634921834</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.102246244</v>
+        <v>1.1623869916</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.5769277666</v>
+        <v>2.4141002741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.7187077076</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.7796545664</v>
+        <v>1.7379107702</v>
       </c>
       <c r="D8" t="n">
-        <v>6.1658044952</v>
+        <v>6.1728730132</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2841900945</v>
+        <v>15.7166349648</v>
       </c>
       <c r="F8" t="n">
-        <v>79.9602003275</v>
+        <v>81.7243464447</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2.1902119423</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.7835157668</v>
-      </c>
+        <v>2.1185041537</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.525314145</v>
+        <v>1.5563512221</v>
       </c>
       <c r="K8" t="n">
-        <v>7.223085485</v>
+        <v>7.4007743009</v>
       </c>
       <c r="L8" t="n">
-        <v>16.1090899079</v>
+        <v>17.6131711966</v>
       </c>
       <c r="M8" t="n">
-        <v>71.1346810759</v>
+        <v>72.5382417439</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.7503796114</v>
+        <v>1.6281471862</v>
       </c>
       <c r="P8" t="n">
-        <v>0.208739474</v>
+        <v>0.2443378779</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0536425464</v>
+        <v>0.0544259728</v>
       </c>
       <c r="R8" t="n">
-        <v>141.2244986396</v>
+        <v>148.1660259437</v>
       </c>
       <c r="S8" t="n">
-        <v>108.2005144857</v>
+        <v>110.4465107966</v>
       </c>
       <c r="T8" t="n">
-        <v>34.1726343319</v>
+        <v>35.6825941651</v>
       </c>
       <c r="U8" t="n">
-        <v>5.9601533603</v>
+        <v>6.1049729486</v>
       </c>
       <c r="V8" t="n">
-        <v>9.9775136276</v>
+        <v>10.0572249732</v>
       </c>
       <c r="W8" t="n">
-        <v>6.3694693121</v>
+        <v>7.6509021759</v>
       </c>
       <c r="X8" t="n">
-        <v>3.0144778784</v>
+        <v>2.9158425426</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.830843431</v>
+        <v>1.9882850062</v>
       </c>
       <c r="Z8" t="n">
-        <v>137.426373127</v>
+        <v>141.8445071033</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.133490328</v>
+        <v>1.0954674525</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.0967238783</v>
+        <v>1.7624751191</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1024961929</v>
+        <v>0.1196798866</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0652769049</v>
+        <v>0.0731692198</v>
       </c>
       <c r="AE8" t="n">
-        <v>144.7858929829</v>
+        <v>151.1789520991</v>
       </c>
       <c r="AF8" t="n">
-        <v>153.9441282259</v>
+        <v>155.8322875949</v>
       </c>
       <c r="AG8" t="n">
-        <v>53.4875523499</v>
+        <v>54.4844101718</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.1982102813</v>
+        <v>7.3838519604</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.1605075378</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10.55037853</v>
-      </c>
+        <v>14.3128069112</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
-        <v>2.0250246699</v>
+        <v>1.9122199012</v>
       </c>
       <c r="AL8" t="n">
-        <v>5.1458126889</v>
+        <v>4.9940068582</v>
       </c>
       <c r="AM8" t="n">
-        <v>12.5236525694</v>
+        <v>13.8958352006</v>
       </c>
       <c r="AN8" t="n">
-        <v>88.47445284</v>
+        <v>90.5436123217</v>
       </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>2.6145318515</v>
+        <v>2.5892791569</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.07650093199999999</v>
+        <v>0.091163972</v>
       </c>
       <c r="AR8" t="n">
-        <v>148.2216807106</v>
+        <v>154.0715597602</v>
       </c>
       <c r="AS8" t="n">
-        <v>198.0744130415</v>
+        <v>199.4056242434</v>
       </c>
       <c r="AT8" t="n">
-        <v>72.1212536172</v>
+        <v>72.53539257769999</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.392602242900001</v>
+        <v>8.611660089900001</v>
       </c>
       <c r="AV8" t="n">
-        <v>18.1959716724</v>
+        <v>18.3984460145</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.6375808623</v>
+        <v>7.4265284535</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.6606574135</v>
+        <v>2.7816129028</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.2656404187</v>
+        <v>1.3785771381</v>
       </c>
       <c r="AZ8" t="n">
-        <v>169.2718121539</v>
+        <v>173.8096714613</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.1902645004</v>
+        <v>1.2095902631</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.7202831398</v>
+        <v>2.4391921298</v>
       </c>
       <c r="BC8" t="n">
-        <v>6.5059315263</v>
+        <v>7.5364296358</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.8343919253</v>
+        <v>2.847360335</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.5431689371</v>
+        <v>1.6772200221</v>
       </c>
       <c r="BF8" t="n">
-        <v>153.634921834</v>
+        <v>158.152716107</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.1623869916</v>
+        <v>1.1536914186</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.4141002741</v>
+        <v>2.1077272918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.4344828885</v>
+      </c>
       <c r="C9" t="n">
-        <v>1.7379107702</v>
+        <v>1.699453607</v>
       </c>
       <c r="D9" t="n">
-        <v>6.1728730132</v>
+        <v>6.0380455916</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7166349648</v>
+        <v>16.3355869986</v>
       </c>
       <c r="F9" t="n">
-        <v>81.7243464447</v>
+        <v>78.56700467650001</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>2.1185041537</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1.881040587</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.6156663196</v>
+      </c>
       <c r="J9" t="n">
-        <v>1.5563512221</v>
+        <v>1.4202922148</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4007743009</v>
+        <v>7.1502021474</v>
       </c>
       <c r="L9" t="n">
-        <v>17.6131711966</v>
+        <v>18.2382296372</v>
       </c>
       <c r="M9" t="n">
-        <v>72.5382417439</v>
+        <v>68.6160965106</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.6281471862</v>
+        <v>1.4440959949</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2443378779</v>
+        <v>0.2233021279</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0544259728</v>
+        <v>0.0510081003</v>
       </c>
       <c r="R9" t="n">
-        <v>148.1660259437</v>
+        <v>150.8128163452</v>
       </c>
       <c r="S9" t="n">
-        <v>110.4465107966</v>
+        <v>111.0605035189</v>
       </c>
       <c r="T9" t="n">
-        <v>35.6825941651</v>
+        <v>34.8011265581</v>
       </c>
       <c r="U9" t="n">
-        <v>6.1049729486</v>
+        <v>6.1402417616</v>
       </c>
       <c r="V9" t="n">
-        <v>10.0572249732</v>
+        <v>10.2650968051</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6509021759</v>
+        <v>7.552599383</v>
       </c>
       <c r="X9" t="n">
-        <v>2.9158425426</v>
+        <v>2.8167806494</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.9882850062</v>
+        <v>2.0505256317</v>
       </c>
       <c r="Z9" t="n">
-        <v>141.8445071033</v>
+        <v>140.4014963192</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.0954674525</v>
+        <v>1.1323798264</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.7624751191</v>
+        <v>1.6129894825</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1196798866</v>
+        <v>0.1097320094</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0731692198</v>
+        <v>0.0757540775</v>
       </c>
       <c r="AE9" t="n">
-        <v>151.1789520991</v>
+        <v>154.399064348</v>
       </c>
       <c r="AF9" t="n">
-        <v>155.8322875949</v>
+        <v>156.7012084836</v>
       </c>
       <c r="AG9" t="n">
-        <v>54.4844101718</v>
+        <v>52.92090734</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.3838519604</v>
+        <v>7.5592543103</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.3128069112</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
+        <v>14.408871159</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10.1580373765</v>
+      </c>
       <c r="AK9" t="n">
-        <v>1.9122199012</v>
+        <v>1.9691807227</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.9940068582</v>
+        <v>4.9634744356</v>
       </c>
       <c r="AM9" t="n">
-        <v>13.8958352006</v>
+        <v>14.497244286</v>
       </c>
       <c r="AN9" t="n">
-        <v>90.5436123217</v>
+        <v>88.1816212837</v>
       </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>2.5892791569</v>
+        <v>2.3032186095</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.091163972</v>
+        <v>0.09966376289999999</v>
       </c>
       <c r="AR9" t="n">
-        <v>154.0715597602</v>
+        <v>157.8641148771</v>
       </c>
       <c r="AS9" t="n">
-        <v>199.4056242434</v>
+        <v>200.7994829926</v>
       </c>
       <c r="AT9" t="n">
-        <v>72.53539257769999</v>
+        <v>70.4283290062</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.611660089900001</v>
+        <v>8.9303112418</v>
       </c>
       <c r="AV9" t="n">
-        <v>18.3984460145</v>
+        <v>18.4126064015</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.4265284535</v>
+        <v>7.5963501071</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.7816129028</v>
+        <v>2.7402058777</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.3785771381</v>
+        <v>1.5070037121</v>
       </c>
       <c r="AZ9" t="n">
-        <v>173.8096714613</v>
+        <v>173.972407463</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.2095902631</v>
+        <v>1.2923432997</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.4391921298</v>
+        <v>2.5375927333</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.5364296358</v>
+        <v>7.574850738</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.847360335</v>
+        <v>2.7778351813</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.6772200221</v>
+        <v>1.774093654</v>
       </c>
       <c r="BF9" t="n">
-        <v>158.152716107</v>
+        <v>157.4754597172</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.1536914186</v>
+        <v>1.2137362864</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.1077272918</v>
+        <v>2.0832371322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.4344828885</v>
+        <v>7.26</v>
       </c>
       <c r="C10" t="n">
-        <v>1.699453607</v>
+        <v>1.48</v>
       </c>
       <c r="D10" t="n">
-        <v>6.0380455916</v>
+        <v>6.17</v>
       </c>
       <c r="E10" t="n">
-        <v>16.3355869986</v>
+        <v>17.01</v>
       </c>
       <c r="F10" t="n">
-        <v>78.56700467650001</v>
+        <v>77.67</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1.881040587</v>
+        <v>1.58</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6156663196</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.4202922148</v>
+        <v>1.32</v>
       </c>
       <c r="K10" t="n">
-        <v>7.1502021474</v>
+        <v>7.43</v>
       </c>
       <c r="L10" t="n">
-        <v>18.2382296372</v>
+        <v>18.72</v>
       </c>
       <c r="M10" t="n">
-        <v>68.6160965106</v>
+        <v>67.13</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.4440959949</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2233021279</v>
+        <v>0.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0510081003</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>150.8128163452</v>
+        <v>158.1</v>
       </c>
       <c r="S10" t="n">
-        <v>111.0605035189</v>
+        <v>112.71</v>
       </c>
       <c r="T10" t="n">
-        <v>34.8011265581</v>
+        <v>34.74</v>
       </c>
       <c r="U10" t="n">
-        <v>6.1402417616</v>
+        <v>6.09</v>
       </c>
       <c r="V10" t="n">
-        <v>10.2650968051</v>
+        <v>10.58</v>
       </c>
       <c r="W10" t="n">
-        <v>7.552599383</v>
+        <v>8.49</v>
       </c>
       <c r="X10" t="n">
-        <v>2.8167806494</v>
+        <v>2.92</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.0505256317</v>
+        <v>2.29</v>
       </c>
       <c r="Z10" t="n">
-        <v>140.4014963192</v>
+        <v>143.73</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.1323798264</v>
+        <v>1.18</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.6129894825</v>
+        <v>1.67</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1097320094</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0757540775</v>
+        <v>0.08</v>
       </c>
       <c r="AE10" t="n">
-        <v>154.399064348</v>
+        <v>162.12</v>
       </c>
       <c r="AF10" t="n">
-        <v>156.7012084836</v>
+        <v>158.61</v>
       </c>
       <c r="AG10" t="n">
-        <v>52.92090734</v>
+        <v>51.48</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5592543103</v>
+        <v>7.44</v>
       </c>
       <c r="AI10" t="n">
-        <v>14.408871159</v>
+        <v>14.57</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.1580373765</v>
+        <v>10.02</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.9691807227</v>
+        <v>1.63</v>
       </c>
       <c r="AL10" t="n">
-        <v>4.9634744356</v>
+        <v>4.96</v>
       </c>
       <c r="AM10" t="n">
-        <v>14.497244286</v>
+        <v>15.36</v>
       </c>
       <c r="AN10" t="n">
-        <v>88.1816212837</v>
+        <v>87.83</v>
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>2.3032186095</v>
+        <v>1.91</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.09966376289999999</v>
+        <v>0.09</v>
       </c>
       <c r="AR10" t="n">
-        <v>157.8641148771</v>
+        <v>166</v>
       </c>
       <c r="AS10" t="n">
-        <v>200.7994829926</v>
+        <v>202.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>70.4283290062</v>
+        <v>67.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.9303112418</v>
+        <v>8.73</v>
       </c>
       <c r="AV10" t="n">
-        <v>18.4126064015</v>
+        <v>18.42</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.5963501071</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.7402058777</v>
+        <v>2.7</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.5070037121</v>
+        <v>1.65</v>
       </c>
       <c r="AZ10" t="n">
-        <v>173.972407463</v>
+        <v>176.06</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.2923432997</v>
+        <v>1.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.5375927333</v>
+        <v>2.78</v>
       </c>
       <c r="BC10" t="n">
-        <v>7.574850738</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.7778351813</v>
+        <v>2.81</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.774093654</v>
+        <v>1.96</v>
       </c>
       <c r="BF10" t="n">
-        <v>157.4754597172</v>
+        <v>160.19</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.2137362864</v>
+        <v>1.19</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.0832371322</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7.26</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.48</v>
+        <v>1.360877128</v>
       </c>
       <c r="D11" t="n">
-        <v>6.17</v>
+        <v>6.20893336</v>
       </c>
       <c r="E11" t="n">
-        <v>17.01</v>
+        <v>17.796676</v>
       </c>
       <c r="F11" t="n">
-        <v>77.67</v>
+        <v>74.60973215999999</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.4</v>
-      </c>
+        <v>1.345524767</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.32</v>
+        <v>1.238521975</v>
       </c>
       <c r="K11" t="n">
-        <v>7.43</v>
+        <v>7.540380415</v>
       </c>
       <c r="L11" t="n">
-        <v>18.72</v>
+        <v>19.52427892</v>
       </c>
       <c r="M11" t="n">
-        <v>67.13</v>
+        <v>63.46784124</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.046779599</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.143806782</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.047935594</v>
       </c>
       <c r="R11" t="n">
-        <v>158.1</v>
+        <v>161.587543</v>
       </c>
       <c r="S11" t="n">
-        <v>112.71</v>
+        <v>113.7768045</v>
       </c>
       <c r="T11" t="n">
-        <v>34.74</v>
+        <v>35.17357819</v>
       </c>
       <c r="U11" t="n">
-        <v>6.09</v>
+        <v>5.988604907</v>
       </c>
       <c r="V11" t="n">
-        <v>10.58</v>
+        <v>10.36412134</v>
       </c>
       <c r="W11" t="n">
-        <v>8.49</v>
+        <v>8.584930452</v>
       </c>
       <c r="X11" t="n">
-        <v>2.92</v>
+        <v>2.993187672</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.29</v>
+        <v>2.420190107</v>
       </c>
       <c r="Z11" t="n">
-        <v>143.73</v>
+        <v>141.5404317</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.18</v>
+        <v>1.281998444</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.67</v>
+        <v>1.56180854</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07073052000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.08</v>
+        <v>0.065795832</v>
       </c>
       <c r="AE11" t="n">
-        <v>162.12</v>
+        <v>164.657908</v>
       </c>
       <c r="AF11" t="n">
-        <v>158.61</v>
+        <v>160.9640204</v>
       </c>
       <c r="AG11" t="n">
-        <v>51.48</v>
+        <v>51.08498067</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.44</v>
+        <v>7.282502021</v>
       </c>
       <c r="AI11" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10.02</v>
-      </c>
+        <v>14.49208033</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
-        <v>1.63</v>
+        <v>1.479304689</v>
       </c>
       <c r="AL11" t="n">
-        <v>4.96</v>
+        <v>4.920225662</v>
       </c>
       <c r="AM11" t="n">
-        <v>15.36</v>
+        <v>16.12452901</v>
       </c>
       <c r="AN11" t="n">
-        <v>87.83</v>
+        <v>85.39396916</v>
       </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>1.91</v>
+        <v>1.634680237</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.09</v>
+        <v>0.08308275800000001</v>
       </c>
       <c r="AR11" t="n">
-        <v>166</v>
+        <v>167.6297145</v>
       </c>
       <c r="AS11" t="n">
-        <v>202.86</v>
+        <v>206.6365299</v>
       </c>
       <c r="AT11" t="n">
-        <v>67.63</v>
+        <v>66.48562826</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.73</v>
+        <v>8.534865129</v>
       </c>
       <c r="AV11" t="n">
-        <v>18.42</v>
+        <v>18.48753213</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.289999999999999</v>
+        <v>8.607157918</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.7</v>
+        <v>2.723388064</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.65</v>
+        <v>1.676761114</v>
       </c>
       <c r="AZ11" t="n">
-        <v>176.06</v>
+        <v>175.1783765</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.2</v>
+        <v>1.347667073</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.78</v>
+        <v>2.929476463</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.390000000000001</v>
+        <v>8.59622547</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.81</v>
+        <v>2.856087414</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.96</v>
+        <v>2.04241229</v>
       </c>
       <c r="BF11" t="n">
-        <v>160.19</v>
+        <v>158.6337513</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.19</v>
+        <v>1.315368344</v>
       </c>
       <c r="BH11" t="n">
-        <v>2.24</v>
+        <v>2.256797043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.360877128</v>
+        <v>1.16</v>
       </c>
       <c r="D12" t="n">
-        <v>6.20893336</v>
+        <v>18.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.796676</v>
+        <v>19.01</v>
       </c>
       <c r="F12" t="n">
-        <v>74.60973215999999</v>
+        <v>63.64</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1.345524767</v>
+        <v>1.1</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1.238521975</v>
+        <v>1.11</v>
       </c>
       <c r="K12" t="n">
-        <v>7.540380415</v>
+        <v>18.83</v>
       </c>
       <c r="L12" t="n">
-        <v>19.52427892</v>
+        <v>20.52</v>
       </c>
       <c r="M12" t="n">
-        <v>63.46784124</v>
+        <v>52.38</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.046779599</v>
+        <v>0.95</v>
       </c>
       <c r="P12" t="n">
-        <v>0.143806782</v>
+        <v>0.11</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.047935594</v>
+        <v>0.04</v>
       </c>
       <c r="R12" t="n">
-        <v>161.587543</v>
+        <v>167.74</v>
       </c>
       <c r="S12" t="n">
-        <v>113.7768045</v>
+        <v>115.51</v>
       </c>
       <c r="T12" t="n">
-        <v>35.17357819</v>
+        <v>36.18</v>
       </c>
       <c r="U12" t="n">
-        <v>5.988604907</v>
+        <v>6.05</v>
       </c>
       <c r="V12" t="n">
-        <v>10.36412134</v>
+        <v>11.06</v>
       </c>
       <c r="W12" t="n">
-        <v>8.584930452</v>
+        <v>9.56</v>
       </c>
       <c r="X12" t="n">
-        <v>2.993187672</v>
+        <v>3.21</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.420190107</v>
+        <v>2.55</v>
       </c>
       <c r="Z12" t="n">
-        <v>141.5404317</v>
+        <v>147.34</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.281998444</v>
+        <v>1.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.56180854</v>
+        <v>1.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.07073052000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.065795832</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>164.657908</v>
+        <v>171.36</v>
       </c>
       <c r="AF12" t="n">
-        <v>160.9640204</v>
+        <v>161.85</v>
       </c>
       <c r="AG12" t="n">
-        <v>51.08498067</v>
+        <v>50.93</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.282502021</v>
+        <v>7.35</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.49208033</v>
+        <v>15.3</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="n">
-        <v>1.479304689</v>
+        <v>1.22</v>
       </c>
       <c r="AL12" t="n">
-        <v>4.920225662</v>
+        <v>18.87</v>
       </c>
       <c r="AM12" t="n">
-        <v>16.12452901</v>
+        <v>17.54</v>
       </c>
       <c r="AN12" t="n">
-        <v>85.39396916</v>
+        <v>74.55</v>
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>1.634680237</v>
+        <v>1.24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.08308275800000001</v>
+        <v>0.1</v>
       </c>
       <c r="AR12" t="n">
-        <v>167.6297145</v>
+        <v>174.87</v>
       </c>
       <c r="AS12" t="n">
-        <v>206.6365299</v>
+        <v>206.72</v>
       </c>
       <c r="AT12" t="n">
-        <v>66.48562826</v>
+        <v>65.22</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.534865129</v>
+        <v>8.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>18.48753213</v>
+        <v>19.41</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.607157918</v>
+        <v>9.06</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.723388064</v>
+        <v>2.94</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.676761114</v>
+        <v>1.9</v>
       </c>
       <c r="AZ12" t="n">
-        <v>175.1783765</v>
+        <v>181.64</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.347667073</v>
+        <v>1.34</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.929476463</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>8.59622547</v>
+        <v>9.31</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.856087414</v>
+        <v>3.07</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.04241229</v>
+        <v>2.22</v>
       </c>
       <c r="BF12" t="n">
-        <v>158.6337513</v>
+        <v>164.77</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.315368344</v>
+        <v>1.32</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.256797043</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.52</v>
+      </c>
       <c r="C13" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="D13" t="n">
-        <v>18.85</v>
+        <v>6.91</v>
       </c>
       <c r="E13" t="n">
-        <v>19.01</v>
+        <v>21.09</v>
       </c>
       <c r="F13" t="n">
-        <v>63.64</v>
+        <v>65.23</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>0.79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J13" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="K13" t="n">
-        <v>18.83</v>
+        <v>8.42</v>
       </c>
       <c r="L13" t="n">
-        <v>20.52</v>
+        <v>22.83</v>
       </c>
       <c r="M13" t="n">
-        <v>52.38</v>
+        <v>52.27</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="Q13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R13" t="n">
+        <v>184.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>119.11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>158.06</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC13" t="n">
         <v>0.04</v>
       </c>
-      <c r="R13" t="n">
-        <v>167.74</v>
-      </c>
-      <c r="S13" t="n">
-        <v>115.51</v>
-      </c>
-      <c r="T13" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>147.34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AD13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AE13" t="n">
-        <v>171.36</v>
+        <v>188.58</v>
       </c>
       <c r="AF13" t="n">
-        <v>161.85</v>
+        <v>167.06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50.93</v>
+        <v>52.98</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.35</v>
+        <v>7.86</v>
       </c>
       <c r="AI13" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
+        <v>15.98</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="AK13" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AL13" t="n">
-        <v>18.87</v>
+        <v>5.45</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.54</v>
+        <v>19.42</v>
       </c>
       <c r="AN13" t="n">
-        <v>74.55</v>
+        <v>77.67</v>
       </c>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AR13" t="n">
-        <v>174.87</v>
+        <v>192.09</v>
       </c>
       <c r="AS13" t="n">
-        <v>206.72</v>
+        <v>213.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>65.22</v>
+        <v>66.62</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.6</v>
+        <v>9.34</v>
       </c>
       <c r="AV13" t="n">
-        <v>19.41</v>
+        <v>20.19</v>
       </c>
       <c r="AW13" t="n">
-        <v>9.06</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.94</v>
+        <v>3.29</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.9</v>
+        <v>2.17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>181.64</v>
+        <v>192.41</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BB13" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="BC13" t="n">
-        <v>9.31</v>
+        <v>10.15</v>
       </c>
       <c r="BD13" t="n">
-        <v>3.07</v>
+        <v>3.54</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="BF13" t="n">
-        <v>164.77</v>
+        <v>175.58</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BH13" t="n">
-        <v>2.31</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
